--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/149.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/149.xlsx
@@ -479,13 +479,13 @@
         <v>-9.347327391295162</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.27865502750653</v>
+        <v>-11.28918123899128</v>
       </c>
       <c r="F2" t="n">
-        <v>0.578637794856675</v>
+        <v>0.6484852305172836</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.235012374314628</v>
+        <v>-5.171933659223191</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.684273573175847</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47379580136246</v>
+        <v>-11.47689867713595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6484459536087583</v>
+        <v>0.7262666016999781</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.118098109938013</v>
+        <v>-5.057716409231973</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.048336658887413</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.02068747566704</v>
+        <v>-12.02126353699208</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6646280399211317</v>
+        <v>0.7362298441625317</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.811319269750689</v>
+        <v>-4.754053537120979</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.513932959873579</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.70665868305928</v>
+        <v>-12.71053400470043</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6772228352548723</v>
+        <v>0.7493876085184663</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.899430467875505</v>
+        <v>-4.838655998084213</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.063935644209385</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.30760847579734</v>
+        <v>-13.31090773611346</v>
       </c>
       <c r="F6" t="n">
-        <v>0.711982899299655</v>
+        <v>0.7806520277045081</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.202055864708124</v>
+        <v>-4.127403553904602</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.703666434976086</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.59452629257377</v>
+        <v>-13.58384297345492</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8220629815928877</v>
+        <v>0.8992159222391795</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.216025351840246</v>
+        <v>-4.139055703433738</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.400296151172866</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.17357266265763</v>
+        <v>-14.15931514486299</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9073855192124165</v>
+        <v>0.9768663703934568</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.80191581295645</v>
+        <v>-3.727878840386489</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.144938122277551</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.96273740104835</v>
+        <v>-14.95302291233979</v>
       </c>
       <c r="F9" t="n">
-        <v>1.128789452568846</v>
+        <v>1.200509087535822</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.439952916291249</v>
+        <v>-3.355782501321793</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.902644249846659</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.5607937948584</v>
+        <v>-15.54597330804157</v>
       </c>
       <c r="F10" t="n">
-        <v>1.173447297561974</v>
+        <v>1.24820434678823</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.741557113502214</v>
+        <v>-2.653550653800131</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.654510904381172</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.16440132507334</v>
+        <v>-16.14870365396611</v>
       </c>
       <c r="F11" t="n">
-        <v>1.119677209791005</v>
+        <v>1.192444228985318</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.300660723004247</v>
+        <v>-2.20503454304828</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.383609418990753</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.63708582687102</v>
+        <v>-16.61739500339706</v>
       </c>
       <c r="F12" t="n">
-        <v>1.149724044812766</v>
+        <v>1.22006898798136</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.875972603424337</v>
+        <v>-1.784483591166355</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.072000450422119</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.43405357775541</v>
+        <v>-17.41311898551149</v>
       </c>
       <c r="F13" t="n">
-        <v>1.366650410597325</v>
+        <v>1.442271551811135</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.086637665096672</v>
+        <v>-0.990252131575885</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.726419287632542</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.24709867652944</v>
+        <v>-18.2270674531816</v>
       </c>
       <c r="F14" t="n">
-        <v>1.570445196631633</v>
+        <v>1.646982799044364</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8792948649922565</v>
+        <v>-0.8000995251026556</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.345598612674391</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.08918250300642</v>
+        <v>-19.06780277246588</v>
       </c>
       <c r="F15" t="n">
-        <v>1.621505177714365</v>
+        <v>1.696078934700837</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4446696875554763</v>
+        <v>-0.3700828382661628</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.946177726504844</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.08098990478138</v>
+        <v>-20.06656218704979</v>
       </c>
       <c r="F16" t="n">
-        <v>1.942554627999172</v>
+        <v>2.021684506374564</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1231434866901833</v>
+        <v>0.1993275969261873</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.547517453423137</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.79408836366167</v>
+        <v>-20.77738258523563</v>
       </c>
       <c r="F17" t="n">
-        <v>2.007047311797514</v>
+        <v>2.082328053137439</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2270963712534883</v>
+        <v>0.2947835769452121</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.165881122171462</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.70303458075135</v>
+        <v>-21.6869572328617</v>
       </c>
       <c r="F18" t="n">
-        <v>2.12747031333571</v>
+        <v>2.201886962688082</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7868315946458029</v>
+        <v>0.8547937386972029</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.831174597005242</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.70667742429522</v>
+        <v>-22.6967534587412</v>
       </c>
       <c r="F19" t="n">
-        <v>2.226945630327145</v>
+        <v>2.300838587565847</v>
       </c>
       <c r="G19" t="n">
-        <v>1.007711835888564</v>
+        <v>1.068839797856582</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.557304215005419</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.06687286007679</v>
+        <v>-23.05059912764452</v>
       </c>
       <c r="F20" t="n">
-        <v>2.527492534361809</v>
+        <v>2.601333122389144</v>
       </c>
       <c r="G20" t="n">
-        <v>1.606422844840697</v>
+        <v>1.677278387820118</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.365715748624068</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.01853926133902</v>
+        <v>-24.00955794158959</v>
       </c>
       <c r="F21" t="n">
-        <v>2.656242240507343</v>
+        <v>2.724060369227484</v>
       </c>
       <c r="G21" t="n">
-        <v>1.716817142402131</v>
+        <v>1.780105334339035</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.26691714201552</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.35861182765285</v>
+        <v>-24.34703823194076</v>
       </c>
       <c r="F22" t="n">
-        <v>2.739195071312519</v>
+        <v>2.806882277004243</v>
       </c>
       <c r="G22" t="n">
-        <v>1.984502366304062</v>
+        <v>2.051901541333268</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.261231355284765</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.89684948977905</v>
+        <v>-24.8823694028361</v>
       </c>
       <c r="F23" t="n">
-        <v>2.677896909407558</v>
+        <v>2.740190086328491</v>
       </c>
       <c r="G23" t="n">
-        <v>2.527571088178859</v>
+        <v>2.597405431536626</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.352312340566559</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.42899923108385</v>
+        <v>-25.42130095701291</v>
       </c>
       <c r="F24" t="n">
-        <v>2.563810582444757</v>
+        <v>2.620893022834683</v>
       </c>
       <c r="G24" t="n">
-        <v>2.32141968763304</v>
+        <v>2.386959755658721</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.522494852901005</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.57323713149115</v>
+        <v>-25.56538174978611</v>
       </c>
       <c r="F25" t="n">
-        <v>2.688318382469572</v>
+        <v>2.741316024372879</v>
       </c>
       <c r="G25" t="n">
-        <v>2.23312519726844</v>
+        <v>2.292354775324409</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.761994761268497</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.65074356431417</v>
+        <v>-25.64397484374499</v>
       </c>
       <c r="F26" t="n">
-        <v>2.851631768117263</v>
+        <v>2.909185531409491</v>
       </c>
       <c r="G26" t="n">
-        <v>2.236136426922037</v>
+        <v>2.292983205860812</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.050755953874069</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.40738383909216</v>
+        <v>-25.39747296584097</v>
       </c>
       <c r="F27" t="n">
-        <v>2.553572401622527</v>
+        <v>2.606910443399719</v>
       </c>
       <c r="G27" t="n">
-        <v>1.951274101691761</v>
+        <v>1.999610883783414</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.367472406086992</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.5015567734327</v>
+        <v>-25.49465712983511</v>
       </c>
       <c r="F28" t="n">
-        <v>2.819634179972085</v>
+        <v>2.874098159793665</v>
       </c>
       <c r="G28" t="n">
-        <v>1.902465996697806</v>
+        <v>1.953499793174855</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.697511564772262</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.7121595569447</v>
+        <v>-25.71286654129815</v>
       </c>
       <c r="F29" t="n">
-        <v>2.653178641642379</v>
+        <v>2.699263547645255</v>
       </c>
       <c r="G29" t="n">
-        <v>1.799927080841408</v>
+        <v>1.857480844133636</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.016517234415036</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.36948162236536</v>
+        <v>-25.36300093245871</v>
       </c>
       <c r="F30" t="n">
-        <v>2.623380560374611</v>
+        <v>2.673759741709572</v>
       </c>
       <c r="G30" t="n">
-        <v>1.926870049194784</v>
+        <v>1.993797901321687</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.311777435824886</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.6070382740746</v>
+        <v>-24.59077763394518</v>
       </c>
       <c r="F31" t="n">
-        <v>2.536552407928283</v>
+        <v>2.585386697527921</v>
       </c>
       <c r="G31" t="n">
-        <v>1.397076922401497</v>
+        <v>1.461700529228257</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.565208628381798</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.72675429125935</v>
+        <v>-24.71961898621061</v>
       </c>
       <c r="F32" t="n">
-        <v>2.516023677072457</v>
+        <v>2.565931535505117</v>
       </c>
       <c r="G32" t="n">
-        <v>1.497494885197536</v>
+        <v>1.573613533919331</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.760097340755142</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.15896730161937</v>
+        <v>-24.14667362925099</v>
       </c>
       <c r="F33" t="n">
-        <v>2.569754487934901</v>
+        <v>2.622804499049574</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7404062887690422</v>
+        <v>0.8049513417787518</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.88549460897175</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.51785032376289</v>
+        <v>-23.49919379221343</v>
       </c>
       <c r="F34" t="n">
-        <v>2.546554927299362</v>
+        <v>2.601464045417561</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6719335449068149</v>
+        <v>0.7373426899040784</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.926679653463056</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.88566229644446</v>
+        <v>-22.85857432186493</v>
       </c>
       <c r="F35" t="n">
-        <v>2.421444881343828</v>
+        <v>2.477584675929149</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7232160951378559</v>
+        <v>0.7933908383695076</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.87998451106026</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.08229240947047</v>
+        <v>-22.05506041955968</v>
       </c>
       <c r="F36" t="n">
-        <v>2.277481919296208</v>
+        <v>2.331448391609803</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7367011670648338</v>
+        <v>0.813971938436701</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.742372907614807</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.13938475880935</v>
+        <v>-21.10281795697241</v>
       </c>
       <c r="F37" t="n">
-        <v>2.319691503657933</v>
+        <v>2.372872437801024</v>
       </c>
       <c r="G37" t="n">
-        <v>0.673216590585304</v>
+        <v>0.7542448528727467</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.518722223104983</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.00874976105461</v>
+        <v>-20.98039183309943</v>
       </c>
       <c r="F38" t="n">
-        <v>2.14930827447571</v>
+        <v>2.201022870700528</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3825805598018271</v>
+        <v>0.4558974557154931</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.221039513046295</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.1571478304117</v>
+        <v>-20.12164150510494</v>
       </c>
       <c r="F39" t="n">
-        <v>2.389813877678217</v>
+        <v>2.443282842483827</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2159024523238125</v>
+        <v>0.2923353163138093</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.861131082470582</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.63996259125499</v>
+        <v>-19.60327795869248</v>
       </c>
       <c r="F40" t="n">
-        <v>2.22440572357585</v>
+        <v>2.28175001002261</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1023714297585482</v>
+        <v>-0.02918545687329949</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.461310050343417</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.69412226475734</v>
+        <v>-18.64403111408489</v>
       </c>
       <c r="F41" t="n">
-        <v>2.446372625954474</v>
+        <v>2.499108421800947</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1703990353241568</v>
+        <v>-0.0903657880526854</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.039636925045778</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.41754736722587</v>
+        <v>-18.38139951907987</v>
       </c>
       <c r="F42" t="n">
-        <v>2.456610806776704</v>
+        <v>2.505183250319508</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.4139158681802617</v>
+        <v>-0.3405466030552288</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.61783864429038</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.50212046022954</v>
+        <v>-17.45974067593088</v>
       </c>
       <c r="F43" t="n">
-        <v>2.804342370252948</v>
+        <v>2.856606843197119</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.4136802067291107</v>
+        <v>-0.3469356468419912</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.217268985151152</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.05488739515618</v>
+        <v>-17.00696956675546</v>
       </c>
       <c r="F44" t="n">
-        <v>2.73783347181698</v>
+        <v>2.793397205077265</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7398618397278739</v>
+        <v>-0.6761808787057183</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.851371296496173</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.32686371103632</v>
+        <v>-16.27796395992247</v>
       </c>
       <c r="F45" t="n">
-        <v>2.689182474457126</v>
+        <v>2.738540456170433</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.787321437529131</v>
+        <v>-0.7187701398498533</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.539107837920387</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.85442796299263</v>
+        <v>-15.80246461301382</v>
       </c>
       <c r="F46" t="n">
-        <v>2.851815060357047</v>
+        <v>2.902848856834095</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9515250997700593</v>
+        <v>-0.8790592035411054</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.285826458443749</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.12678395565518</v>
+        <v>-15.06730562384522</v>
       </c>
       <c r="F47" t="n">
-        <v>2.827672853916904</v>
+        <v>2.878052035251866</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.283938668921484</v>
+        <v>-1.2103337423453</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.097026805860863</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.4756906430333</v>
+        <v>-14.41567552680683</v>
       </c>
       <c r="F48" t="n">
-        <v>2.693948072691514</v>
+        <v>2.741761162669498</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.323267946658029</v>
+        <v>-1.248078851437996</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.9725959090411944</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.87117974392229</v>
+        <v>-13.80711910611772</v>
       </c>
       <c r="F49" t="n">
-        <v>3.083967774346533</v>
+        <v>3.141076399342143</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.513603845371043</v>
+        <v>-1.431711491096046</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.9044804895854748</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.2752443031726</v>
+        <v>-13.21173354208739</v>
       </c>
       <c r="F50" t="n">
-        <v>3.139662430635236</v>
+        <v>3.194781025598903</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.476421705300541</v>
+        <v>-1.387210753737019</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.8901022297916156</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.41996343543116</v>
+        <v>-12.35679307421983</v>
       </c>
       <c r="F51" t="n">
-        <v>3.124999051452503</v>
+        <v>3.180484230895738</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.489775854199101</v>
+        <v>-1.39320702843853</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.9166801753959712</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.38575324810573</v>
+        <v>-12.34186784898026</v>
       </c>
       <c r="F52" t="n">
-        <v>3.087057557817181</v>
+        <v>3.141992860541063</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.586161387719889</v>
+        <v>-1.489252162085432</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.976739441734816</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.59148251160673</v>
+        <v>-11.53869434654889</v>
       </c>
       <c r="F53" t="n">
-        <v>3.358434811120479</v>
+        <v>3.418266635107167</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.730634949578336</v>
+        <v>-1.634746923565534</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.061509326926162</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.35373938430383</v>
+        <v>-11.30083338852041</v>
       </c>
       <c r="F54" t="n">
-        <v>3.017406506699198</v>
+        <v>3.075274485259627</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.800286000696319</v>
+        <v>-1.699671653357654</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.162628023567131</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.77622481365245</v>
+        <v>-10.71975771149609</v>
       </c>
       <c r="F55" t="n">
-        <v>2.897926150965606</v>
+        <v>2.957915082586395</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.189742733329144</v>
+        <v>-2.088185740185875</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.279079942480827</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.22410931051402</v>
+        <v>-10.16545579378309</v>
       </c>
       <c r="F56" t="n">
-        <v>3.117353146592935</v>
+        <v>3.179986723387753</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.461159263540967</v>
+        <v>-2.364616622386079</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.404797492432108</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.620606518721818</v>
+        <v>-9.571654398396603</v>
       </c>
       <c r="F57" t="n">
-        <v>3.136598831770272</v>
+        <v>3.203448130080126</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.940141163005515</v>
+        <v>-2.853731964250123</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.540185929208408</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.486515153016859</v>
+        <v>-9.439762539569054</v>
       </c>
       <c r="F58" t="n">
-        <v>3.09630072362344</v>
+        <v>3.163804637075379</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.771931256095019</v>
+        <v>-2.671185985727937</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.68318692801319</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.889545420342674</v>
+        <v>-8.841234822856705</v>
       </c>
       <c r="F59" t="n">
-        <v>3.199494254621924</v>
+        <v>3.270035582333144</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.134823706261982</v>
+        <v>-3.042444417410763</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.831092725525077</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.777383661897607</v>
+        <v>-8.72650697305466</v>
       </c>
       <c r="F60" t="n">
-        <v>2.99808226770481</v>
+        <v>3.066895411440923</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.85446513320926</v>
+        <v>-2.753405647573976</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.983373208470157</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.337272809570145</v>
+        <v>-8.290638026847915</v>
       </c>
       <c r="F61" t="n">
-        <v>3.062051259389484</v>
+        <v>3.130812033914229</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.313874039925428</v>
+        <v>-3.216441122177302</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.133135217849545</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.964574224574728</v>
+        <v>-7.918057272578076</v>
       </c>
       <c r="F62" t="n">
-        <v>2.877318866292729</v>
+        <v>2.939009797282943</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.429609997046286</v>
+        <v>-3.340163384031614</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.277164351292766</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.774120495136139</v>
+        <v>-7.730942080364127</v>
       </c>
       <c r="F63" t="n">
-        <v>3.156708608935164</v>
+        <v>3.230549196962499</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.409578773698445</v>
+        <v>-3.318783653491075</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.408642824858932</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.508359839751942</v>
+        <v>-7.469370961889282</v>
       </c>
       <c r="F64" t="n">
-        <v>3.014028692566033</v>
+        <v>3.088104942044519</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.736218637296669</v>
+        <v>-3.650267669140737</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.521074334239046</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.223209483859148</v>
+        <v>-7.184652651990265</v>
       </c>
       <c r="F65" t="n">
-        <v>3.111985302427827</v>
+        <v>3.189308443011062</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.774264869354725</v>
+        <v>-3.68616676353275</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.609519207182276</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.00803748665538</v>
+        <v>-6.971261207972971</v>
       </c>
       <c r="F66" t="n">
-        <v>2.960559727760424</v>
+        <v>3.037647206892507</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.825115373591989</v>
+        <v>-3.743301573134043</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.665491643269528</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.101424882825413</v>
+        <v>-7.072556355059406</v>
       </c>
       <c r="F67" t="n">
-        <v>2.96129289671956</v>
+        <v>3.036495084242435</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.709654354830807</v>
+        <v>-3.632383583458939</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.684952174065814</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.793061873994239</v>
+        <v>-6.761470147237153</v>
       </c>
       <c r="F68" t="n">
-        <v>2.926755401823087</v>
+        <v>3.003502481081285</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.685355040756563</v>
+        <v>-3.609419684274552</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.662115294152734</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.963287995542361</v>
+        <v>-6.942104649544448</v>
       </c>
       <c r="F69" t="n">
-        <v>2.68876352076619</v>
+        <v>2.761949493651439</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.72735514827282</v>
+        <v>-3.650883007374298</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.593441097500243</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.716537363884349</v>
+        <v>-6.69196311145043</v>
       </c>
       <c r="F70" t="n">
-        <v>2.751999343491728</v>
+        <v>2.827384823254386</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.530721851892936</v>
+        <v>-3.459892493519198</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.477940134943678</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.634461717369568</v>
+        <v>-6.613671140456908</v>
       </c>
       <c r="F71" t="n">
-        <v>2.660536515839429</v>
+        <v>2.732151412383671</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.520640778704808</v>
+        <v>-3.454655572382508</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.314664199325377</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.802422870526073</v>
+        <v>-6.787707122131972</v>
       </c>
       <c r="F72" t="n">
-        <v>2.804787508549567</v>
+        <v>2.883576987051074</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.394705917670244</v>
+        <v>-3.331391541127657</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.108715711785406</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.94765578594934</v>
+        <v>-6.934183806325203</v>
       </c>
       <c r="F73" t="n">
-        <v>2.564857966672095</v>
+        <v>2.634063879493459</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.311307948568449</v>
+        <v>-3.25389820060748</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.865100272069355</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.219281793006631</v>
+        <v>-7.20698812063825</v>
       </c>
       <c r="F74" t="n">
-        <v>2.69748299445878</v>
+        <v>2.768600383495036</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.277778560990789</v>
+        <v>-3.224807103693165</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.591917672710615</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.387714269065436</v>
+        <v>-7.377057134552271</v>
       </c>
       <c r="F75" t="n">
-        <v>2.253130236010597</v>
+        <v>2.319429657601098</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.012292843966268</v>
+        <v>-2.960918647615335</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.299358282197454</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.826070752812108</v>
+        <v>-7.81280825003344</v>
       </c>
       <c r="F76" t="n">
-        <v>2.498191960602026</v>
+        <v>2.570382918471303</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.937889286916739</v>
+        <v>-2.887902874667028</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.9971252585354644</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.147643895210583</v>
+        <v>-8.132784131485225</v>
       </c>
       <c r="F77" t="n">
-        <v>2.347342447259658</v>
+        <v>2.415946114150303</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.809021750045629</v>
+        <v>-2.76048858341135</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.699172223599604</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.501293179571288</v>
+        <v>-8.480646617989887</v>
       </c>
       <c r="F78" t="n">
-        <v>2.24488208522031</v>
+        <v>2.310605445485775</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.643469580612003</v>
+        <v>-2.599492535366644</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4165354943175963</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.961958947360262</v>
+        <v>-8.940068617008896</v>
       </c>
       <c r="F79" t="n">
-        <v>2.350667892181457</v>
+        <v>2.42571297207023</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.357009994435036</v>
+        <v>-2.314525471713635</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1615999013312019</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.363094014127906</v>
+        <v>-9.333662517339707</v>
       </c>
       <c r="F80" t="n">
-        <v>2.064522521272691</v>
+        <v>2.133937910939523</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.807735521013261</v>
+        <v>-1.762121937912687</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.05505615063586503</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.00651523728454</v>
+        <v>-9.968704666677629</v>
       </c>
       <c r="F81" t="n">
-        <v>2.207359545275923</v>
+        <v>2.278424565100812</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.908493883683184</v>
+        <v>-1.869544282729049</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2263845641232086</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.66441654738411</v>
+        <v>-10.62194511696555</v>
       </c>
       <c r="F82" t="n">
-        <v>2.185573953347291</v>
+        <v>2.259440725980309</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.683699043890748</v>
+        <v>-1.64184295170575</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3421980263357393</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.26781460075358</v>
+        <v>-11.21920288030225</v>
       </c>
       <c r="F83" t="n">
-        <v>1.871489608174282</v>
+        <v>1.938129429638668</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.281005993084938</v>
+        <v>-1.239333193139723</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3994517831149503</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.15471337985779</v>
+        <v>-12.09740837031955</v>
       </c>
       <c r="F84" t="n">
-        <v>1.927838879605071</v>
+        <v>1.998694422584493</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.132630924979656</v>
+        <v>-1.093550400997104</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3926010738763291</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.78851176042575</v>
+        <v>-12.72603529126503</v>
       </c>
       <c r="F85" t="n">
-        <v>1.848656632018312</v>
+        <v>1.920035867111403</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.83009399091305</v>
+        <v>-0.7931213276880156</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3188406685187966</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.58948575597971</v>
+        <v>-13.51535713728985</v>
       </c>
       <c r="F86" t="n">
-        <v>1.814145321727522</v>
+        <v>1.886257725779749</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6222536833006487</v>
+        <v>-0.5891563417167651</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1789820954416413</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.41689311097111</v>
+        <v>-14.33574701795809</v>
       </c>
       <c r="F87" t="n">
-        <v>1.828049347345435</v>
+        <v>1.904403657518382</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2313437050523917</v>
+        <v>-0.19863913255376</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0312162181960473</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.61076711480527</v>
+        <v>-15.52972576021499</v>
       </c>
       <c r="F88" t="n">
-        <v>1.849520724005866</v>
+        <v>1.925037126796942</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04638331512914338</v>
+        <v>0.0782892571544298</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3069498590713055</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.5565681643944</v>
+        <v>-16.45613710929552</v>
       </c>
       <c r="F89" t="n">
-        <v>1.593016326730769</v>
+        <v>1.66515491538868</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2334723227374089</v>
+        <v>0.2590939593986668</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.6493788752127971</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.9578242452415</v>
+        <v>-17.85464380654586</v>
       </c>
       <c r="F90" t="n">
-        <v>1.551016219214512</v>
+        <v>1.627291975570408</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6925146449740083</v>
+        <v>0.7208594806263452</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.054252793137707</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.11272246351584</v>
+        <v>-18.99245656961175</v>
       </c>
       <c r="F91" t="n">
-        <v>1.244590871203913</v>
+        <v>1.313652768694018</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6608050874913478</v>
+        <v>0.6924491834597997</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.513759701951539</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.39948635601205</v>
+        <v>-20.26777778942428</v>
       </c>
       <c r="F92" t="n">
-        <v>1.036855302014246</v>
+        <v>1.102644123793919</v>
       </c>
       <c r="G92" t="n">
-        <v>1.154803858315356</v>
+        <v>1.195861320027009</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.023425145227031</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.99626288749748</v>
+        <v>-21.85247012538681</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8965320001566256</v>
+        <v>0.9642715750597163</v>
       </c>
       <c r="G93" t="n">
-        <v>1.152277043866903</v>
+        <v>1.193334505578556</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.566918590869872</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.63297094265019</v>
+        <v>-23.47467190899087</v>
       </c>
       <c r="F94" t="n">
-        <v>1.000092115634679</v>
+        <v>1.067792413629244</v>
       </c>
       <c r="G94" t="n">
-        <v>1.310562985223371</v>
+        <v>1.361884812362937</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.134681610038095</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.31133870544526</v>
+        <v>-25.13066492622944</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2795441364374429</v>
+        <v>0.3411172367020806</v>
       </c>
       <c r="G95" t="n">
-        <v>1.284286733420027</v>
+        <v>1.341617927563945</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.711746997276938</v>
       </c>
       <c r="E96" t="n">
-        <v>-27.07885195828964</v>
+        <v>-26.89389699604458</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4402128769111052</v>
+        <v>0.5130715422253108</v>
       </c>
       <c r="G96" t="n">
-        <v>0.992105810901226</v>
+        <v>1.051400850471403</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.278374177980285</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.99603641722064</v>
+        <v>-28.79836882891626</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1808728775975377</v>
+        <v>-0.1223371915921805</v>
       </c>
       <c r="G97" t="n">
-        <v>1.16348405509942</v>
+        <v>1.232506675681</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.82713692031979</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.22637566782289</v>
+        <v>-31.02103599005326</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4582987748137131</v>
+        <v>-0.3884513391531045</v>
       </c>
       <c r="G98" t="n">
-        <v>1.03415828762885</v>
+        <v>1.109766336539818</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.328785702615861</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.40972664352618</v>
+        <v>-33.19091498613241</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4312238925370236</v>
+        <v>-0.3612586261508395</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6531591826317797</v>
+        <v>0.7331924299032512</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.785116951252223</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.38834018739055</v>
+        <v>-35.14824044557614</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5022627277562293</v>
+        <v>-0.4308442157546135</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4592490852429749</v>
+        <v>0.544794192010813</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.159549998367964</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.21537104895343</v>
+        <v>-36.95283110006829</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8613453177962501</v>
+        <v>-0.7874916374660733</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1096376578357062</v>
+        <v>-0.02487808923837161</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.472996838136811</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.52203842512294</v>
+        <v>-39.25405207825564</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7715583049076927</v>
+        <v>-0.6935281799710054</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6437381522639212</v>
+        <v>-0.5637441819009749</v>
       </c>
     </row>
   </sheetData>
